--- a/tabla.xlsx
+++ b/tabla.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Pruebas\combiche\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E743A6-6FAC-4CD1-B597-0893FF2BC83F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,11 +47,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,8 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,19 +370,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -391,8 +411,30 @@
       <c r="D2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>12.643134355545</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2-E2</f>
+        <v>-3.6431343555449995</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SQRT(SUMSQ(F2:F61)/COUNTA(F2:F61))</f>
+        <v>4.8310830678029459</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11.420199999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <f>D2-H2</f>
+        <v>-2.4201999999999995</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SQRT(SUMSQ(I2:I61)/COUNTA(I2:I61))</f>
+        <v>4.9045208268749567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -405,8 +447,22 @@
       <c r="D3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>8.3259880542755091</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3-E3</f>
+        <v>8.6740119457244909</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.5883560000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I61" si="0">D3-H3</f>
+        <v>9.411643999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -419,8 +475,22 @@
       <c r="D4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>9.8222825527191109</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4-E4</f>
+        <v>3.1777174472808891</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.7132229999999993</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2867770000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -433,8 +503,22 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>10.4399886131286</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5-E5</f>
+        <v>-10.4399886131286</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.9226519999999994</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.9226519999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -447,8 +531,22 @@
       <c r="D6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>9.9401440620422292</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6-E6</f>
+        <v>7.0598559379577708</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.5163910000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4836089999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -461,8 +559,22 @@
       <c r="D7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>10.609255075454699</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7-E7</f>
+        <v>0.39074492454530052</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.1322720000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8677279999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -475,8 +587,22 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>12.643134355545</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8-E8</f>
+        <v>-5.6431343555449995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11.420199999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.4201999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -489,8 +615,22 @@
       <c r="D9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>7.7280709999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9-E9</f>
+        <v>3.2719290000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.312557</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.687443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -503,8 +643,22 @@
       <c r="D10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>4.0421420000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10-E10</f>
+        <v>7.9578579999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.8126280000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1873719999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -517,8 +671,22 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>5.4789349999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11-E11</f>
+        <v>4.5210650000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.0077990000000003</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9922009999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -531,8 +699,22 @@
       <c r="D12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>6.2882239999999996</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12-E12</f>
+        <v>1.7117760000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.2303179999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7696820000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -545,8 +727,22 @@
       <c r="D13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>5.6320329999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D13-E13</f>
+        <v>3.3679670000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4.7986649999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2013350000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -559,8 +755,22 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>6.3566269999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14-E14</f>
+        <v>-6.3566269999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.4530390000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.4530390000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -573,8 +783,22 @@
       <c r="D15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>8.5521980000000006</v>
+      </c>
+      <c r="F15" s="1">
+        <f>D15-E15</f>
+        <v>-2.5521980000000006</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.8839620000000004</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8839620000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -587,8 +811,22 @@
       <c r="D16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>7.8676890000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16-E16</f>
+        <v>-1.8676890000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6.312557</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.31255699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -601,8 +839,22 @@
       <c r="D17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>3.9546329999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17-E17</f>
+        <v>7.0453670000000006</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.8126280000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1873719999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -615,8 +867,22 @@
       <c r="D18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>5.2770219999999997</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18-E18</f>
+        <v>2.7229780000000003</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5.0077990000000003</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9922009999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -629,8 +895,22 @@
       <c r="D19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>6.2176070000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19-E19</f>
+        <v>4.7823929999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5.2303179999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7696820000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -643,8 +923,22 @@
       <c r="D20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>5.6197540000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20-E20</f>
+        <v>-1.6197540000000004</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.7986649999999997</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.79866499999999974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -657,8 +951,22 @@
       <c r="D21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>6.1945839999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21-E21</f>
+        <v>1.8054160000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5.4530390000000004</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5469609999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -671,8 +979,22 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>8.3782490000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <f>D22-E22</f>
+        <v>-8.3782490000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.8839620000000004</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.8839620000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -685,8 +1007,22 @@
       <c r="D23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>5.4312509999999996</v>
+      </c>
+      <c r="F23" s="1">
+        <f>D23-E23</f>
+        <v>4.5687490000000004</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4.4559230000000003</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5440769999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -699,8 +1035,22 @@
       <c r="D24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>2.558754</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24-E24</f>
+        <v>6.4412459999999996</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.6912669999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3087330000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -713,8 +1063,22 @@
       <c r="D25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>3.4315009999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25-E25</f>
+        <v>4.5684990000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.5349170000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4650829999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -727,8 +1091,22 @@
       <c r="D26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>4.0563549999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26-E26</f>
+        <v>0.94364500000000007</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.691989</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.308011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -741,8 +1119,22 @@
       <c r="D27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>3.5695190000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27-E27</f>
+        <v>0.43048099999999989</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.3872930000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61270699999999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -755,8 +1147,22 @@
       <c r="D28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>4.0393420000000004</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28-E28</f>
+        <v>7.9606579999999996</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.8492039999999998</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1507959999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -769,8 +1175,22 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>5.5137999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29-E29</f>
+        <v>-5.5137999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.56515</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.56515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -783,8 +1203,22 @@
       <c r="D30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>5.3875380000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30-E30</f>
+        <v>2.6124619999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4.4559230000000003</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5440769999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -797,8 +1231,22 @@
       <c r="D31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>2.5910310000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <f>D31-E31</f>
+        <v>7.4089689999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.6912669999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3087330000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -811,8 +1259,22 @@
       <c r="D32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>3.4617969999999998</v>
+      </c>
+      <c r="F32" s="1">
+        <f>D32-E32</f>
+        <v>5.5382030000000002</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.5349170000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4650829999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -825,8 +1287,22 @@
       <c r="D33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>4.0775199999999998</v>
+      </c>
+      <c r="F33" s="1">
+        <f>D33-E33</f>
+        <v>-2.0775199999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.691989</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.691989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -839,8 +1315,22 @@
       <c r="D34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>3.5553780000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f>D34-E34</f>
+        <v>3.4446219999999999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.3872930000000001</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6127069999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -853,8 +1343,22 @@
       <c r="D35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>4.0071199999999996</v>
+      </c>
+      <c r="F35" s="1">
+        <f>D35-E35</f>
+        <v>7.9928800000000004</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3.8492039999999998</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1507959999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -867,8 +1371,22 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>5.4868569999999997</v>
+      </c>
+      <c r="F36" s="1">
+        <f>D36-E36</f>
+        <v>-5.4868569999999997</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5.56515</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.56515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -881,8 +1399,22 @@
       <c r="D37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>2.4498790000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <f>D37-E37</f>
+        <v>1.5501209999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.9104080000000001</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0895919999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -895,8 +1427,22 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>2.5389309999999998</v>
+      </c>
+      <c r="F38" s="1">
+        <f>D38-E38</f>
+        <v>-2.5389309999999998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.6912669999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.6912669999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -909,8 +1455,22 @@
       <c r="D39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>3.5139990000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <f>D39-E39</f>
+        <v>2.4860009999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3.5349170000000001</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4650829999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -923,8 +1483,22 @@
       <c r="D40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>4.0411960000000002</v>
+      </c>
+      <c r="F40" s="1">
+        <f>D40-E40</f>
+        <v>-4.1196000000000232E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.691989</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30801100000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -937,8 +1511,22 @@
       <c r="D41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>3.5385719999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <f>D41-E41</f>
+        <v>6.4614279999999997</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.3872930000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6127070000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -951,8 +1539,22 @@
       <c r="D42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>3.9816989999999999</v>
+      </c>
+      <c r="F42" s="1">
+        <f>D42-E42</f>
+        <v>2.0183010000000001</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.8492039999999998</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1507960000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -965,8 +1567,22 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>5.5408989999999996</v>
+      </c>
+      <c r="F43" s="1">
+        <f>D43-E43</f>
+        <v>-5.5408989999999996</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5.56515</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.56515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -979,8 +1595,22 @@
       <c r="D44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>2.422504</v>
+      </c>
+      <c r="F44" s="1">
+        <f>D44-E44</f>
+        <v>0.57749600000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.9104080000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0895919999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -993,8 +1623,22 @@
       <c r="D45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>2.4913829999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <f>D45-E45</f>
+        <v>3.5086170000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.6912669999999999</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3087330000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1007,8 +1651,22 @@
       <c r="D46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <v>3.4959669999999998</v>
+      </c>
+      <c r="F46" s="1">
+        <f>D46-E46</f>
+        <v>0.50403300000000018</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.5349170000000001</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46508299999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1021,8 +1679,22 @@
       <c r="D47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <v>4.0022250000000001</v>
+      </c>
+      <c r="F47" s="1">
+        <f>D47-E47</f>
+        <v>5.9977749999999999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3.691989</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3080110000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1035,8 +1707,22 @@
       <c r="D48">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <v>3.4515820000000001</v>
+      </c>
+      <c r="F48" s="1">
+        <f>D48-E48</f>
+        <v>11.548418</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3.3872930000000001</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="0"/>
+        <v>11.612707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1049,8 +1735,22 @@
       <c r="D49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <v>3.9497390000000001</v>
+      </c>
+      <c r="F49" s="1">
+        <f>D49-E49</f>
+        <v>2.0502609999999999</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3.8492039999999998</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1507960000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1063,8 +1763,22 @@
       <c r="D50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <v>5.4432349999999996</v>
+      </c>
+      <c r="F50" s="1">
+        <f>D50-E50</f>
+        <v>-1.4432349999999996</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5.56515</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.56515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -1077,8 +1791,22 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1">
+        <v>3.0353330000000001</v>
+      </c>
+      <c r="F51" s="1">
+        <f>D51-E51</f>
+        <v>-3.0353330000000001</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.38801</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.38801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -1091,8 +1819,22 @@
       <c r="D52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <v>2.989001</v>
+      </c>
+      <c r="F52" s="1">
+        <f>D52-E52</f>
+        <v>1.0998999999999981E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3.3640829999999999</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.36408299999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -1105,8 +1847,22 @@
       <c r="D53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <v>4.2635610000000002</v>
+      </c>
+      <c r="F53" s="1">
+        <f>D53-E53</f>
+        <v>-1.2635610000000002</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4.4186459999999999</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4186459999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -1119,8 +1875,22 @@
       <c r="D54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <v>4.9876709999999997</v>
+      </c>
+      <c r="F54" s="1">
+        <f>D54-E54</f>
+        <v>-1.9876709999999997</v>
+      </c>
+      <c r="H54" s="1">
+        <v>4.614986</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.614986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -1133,8 +1903,22 @@
       <c r="D55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <v>4.332014</v>
+      </c>
+      <c r="F55" s="1">
+        <f>D55-E55</f>
+        <v>0.66798599999999997</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4.2341160000000002</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76588399999999979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -1147,8 +1931,22 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1">
+        <v>4.8624400000000003</v>
+      </c>
+      <c r="F56" s="1">
+        <f>D56-E56</f>
+        <v>-4.8624400000000003</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4.8115050000000004</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8115050000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -1161,8 +1959,22 @@
       <c r="D57">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <v>6.883362</v>
+      </c>
+      <c r="F57" s="1">
+        <f>D57-E57</f>
+        <v>9.116638</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6.9564370000000002</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0435629999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -1175,8 +1987,22 @@
       <c r="D58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2">
+        <v>2.602131</v>
+      </c>
+      <c r="F58" s="1">
+        <f>D58-E58</f>
+        <v>2.397869</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.5472109999999999</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4527890000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -1189,8 +2015,22 @@
       <c r="D59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2">
+        <v>3.2746209999999998</v>
+      </c>
+      <c r="F59" s="1">
+        <f>D59-E59</f>
+        <v>-0.27462099999999978</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3.5883560000000001</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.5883560000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -1203,8 +2043,22 @@
       <c r="D60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="2">
+        <v>4.6798029999999997</v>
+      </c>
+      <c r="F60" s="1">
+        <f>D60-E60</f>
+        <v>-2.6798029999999997</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4.7132230000000002</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.7132230000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -1216,6 +2070,20 @@
       </c>
       <c r="D61">
         <v>5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5.2597120000000004</v>
+      </c>
+      <c r="F61" s="1">
+        <f>D61-E61</f>
+        <v>-0.25971200000000039</v>
+      </c>
+      <c r="H61" s="1">
+        <v>4.9226520000000002</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="0"/>
+        <v>7.734799999999975E-2</v>
       </c>
     </row>
   </sheetData>

--- a/tabla.xlsx
+++ b/tabla.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Pruebas\combiche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E743A6-6FAC-4CD1-B597-0893FF2BC83F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1E6ED-38E5-4FC7-91DC-9C59AB115811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>AÑO</t>
   </si>
@@ -42,6 +45,30 @@
   </si>
   <si>
     <t>VENTAS OBSERVADAS</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>δ = 0.05</t>
+  </si>
+  <si>
+    <t>gl=9</t>
+  </si>
+  <si>
+    <t>p&lt;0.05</t>
+  </si>
+  <si>
+    <t>x^2 = 17</t>
+  </si>
+  <si>
+    <t>p(X^2 &gt;= 17)&gt;5%</t>
+  </si>
+  <si>
+    <t>La hipotesis nula es rechazada con un nivel de significación del 99%</t>
+  </si>
+  <si>
+    <t>podemos afirmar que hay una probabilidad mayor al 99%  de que haya asociación</t>
   </si>
 </sst>
 </file>
@@ -64,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,13 +117,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,17 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -397,8 +440,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -415,26 +461,18 @@
         <v>12.643134355545</v>
       </c>
       <c r="F2" s="1">
-        <f>D2-E2</f>
+        <f t="shared" ref="F2:F33" si="0">D2-E2</f>
         <v>-3.6431343555449995</v>
       </c>
       <c r="G2" s="3">
         <f>SQRT(SUMSQ(F2:F61)/COUNTA(F2:F61))</f>
-        <v>4.8310830678029459</v>
-      </c>
-      <c r="H2" s="1">
-        <v>11.420199999999999</v>
-      </c>
-      <c r="I2" s="1">
-        <f>D2-H2</f>
-        <v>-2.4201999999999995</v>
-      </c>
-      <c r="J2" s="3">
-        <f>SQRT(SUMSQ(I2:I61)/COUNTA(I2:I61))</f>
-        <v>4.9045208268749567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.8334226895081622</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -451,18 +489,12 @@
         <v>8.3259880542755091</v>
       </c>
       <c r="F3" s="1">
-        <f>D3-E3</f>
+        <f t="shared" si="0"/>
         <v>8.6740119457244909</v>
       </c>
-      <c r="H3" s="1">
-        <v>7.5883560000000001</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I61" si="0">D3-H3</f>
-        <v>9.411643999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -479,18 +511,15 @@
         <v>9.8222825527191109</v>
       </c>
       <c r="F4" s="1">
-        <f>D4-E4</f>
+        <f t="shared" si="0"/>
         <v>3.1777174472808891</v>
       </c>
-      <c r="H4" s="1">
-        <v>8.7132229999999993</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2867770000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>23.65</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -507,18 +536,13 @@
         <v>10.4399886131286</v>
       </c>
       <c r="F5" s="1">
-        <f>D5-E5</f>
+        <f t="shared" si="0"/>
         <v>-10.4399886131286</v>
       </c>
-      <c r="H5" s="1">
-        <v>8.9226519999999994</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.9226519999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -535,18 +559,13 @@
         <v>9.9401440620422292</v>
       </c>
       <c r="F6" s="1">
-        <f>D6-E6</f>
+        <f t="shared" si="0"/>
         <v>7.0598559379577708</v>
       </c>
-      <c r="H6" s="1">
-        <v>8.5163910000000005</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4836089999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -556,25 +575,20 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>10.609255075454699</v>
       </c>
       <c r="F7" s="1">
-        <f>D7-E7</f>
+        <f t="shared" si="0"/>
         <v>0.39074492454530052</v>
       </c>
-      <c r="H7" s="1">
-        <v>9.1322720000000004</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8677279999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -591,18 +605,13 @@
         <v>12.643134355545</v>
       </c>
       <c r="F8" s="1">
-        <f>D8-E8</f>
+        <f t="shared" si="0"/>
         <v>-5.6431343555449995</v>
       </c>
-      <c r="H8" s="1">
-        <v>11.420199999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.4201999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -619,18 +628,13 @@
         <v>7.7280709999999999</v>
       </c>
       <c r="F9" s="1">
-        <f>D9-E9</f>
+        <f t="shared" si="0"/>
         <v>3.2719290000000001</v>
       </c>
-      <c r="H9" s="1">
-        <v>6.312557</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.687443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -647,18 +651,13 @@
         <v>4.0421420000000001</v>
       </c>
       <c r="F10" s="1">
-        <f>D10-E10</f>
+        <f t="shared" si="0"/>
         <v>7.9578579999999999</v>
       </c>
-      <c r="H10" s="1">
-        <v>3.8126280000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1873719999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -675,18 +674,13 @@
         <v>5.4789349999999999</v>
       </c>
       <c r="F11" s="1">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
         <v>4.5210650000000001</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0077990000000003</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9922009999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -703,18 +697,13 @@
         <v>6.2882239999999996</v>
       </c>
       <c r="F12" s="1">
-        <f>D12-E12</f>
+        <f t="shared" si="0"/>
         <v>1.7117760000000004</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.2303179999999996</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7696820000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -731,18 +720,13 @@
         <v>5.6320329999999998</v>
       </c>
       <c r="F13" s="1">
-        <f>D13-E13</f>
+        <f t="shared" si="0"/>
         <v>3.3679670000000002</v>
       </c>
-      <c r="H13" s="1">
-        <v>4.7986649999999997</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2013350000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -759,18 +743,13 @@
         <v>6.3566269999999996</v>
       </c>
       <c r="F14" s="1">
-        <f>D14-E14</f>
+        <f t="shared" si="0"/>
         <v>-6.3566269999999996</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.4530390000000004</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.4530390000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -787,18 +766,13 @@
         <v>8.5521980000000006</v>
       </c>
       <c r="F15" s="1">
-        <f>D15-E15</f>
+        <f t="shared" si="0"/>
         <v>-2.5521980000000006</v>
       </c>
-      <c r="H15" s="1">
-        <v>7.8839620000000004</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.8839620000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -815,18 +789,13 @@
         <v>7.8676890000000004</v>
       </c>
       <c r="F16" s="1">
-        <f>D16-E16</f>
+        <f t="shared" si="0"/>
         <v>-1.8676890000000004</v>
       </c>
-      <c r="H16" s="1">
-        <v>6.312557</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.31255699999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -843,18 +812,13 @@
         <v>3.9546329999999998</v>
       </c>
       <c r="F17" s="1">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
         <v>7.0453670000000006</v>
       </c>
-      <c r="H17" s="1">
-        <v>3.8126280000000001</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1873719999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -871,18 +835,13 @@
         <v>5.2770219999999997</v>
       </c>
       <c r="F18" s="1">
-        <f>D18-E18</f>
+        <f t="shared" si="0"/>
         <v>2.7229780000000003</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0077990000000003</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9922009999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -899,18 +858,13 @@
         <v>6.2176070000000001</v>
       </c>
       <c r="F19" s="1">
-        <f>D19-E19</f>
+        <f t="shared" si="0"/>
         <v>4.7823929999999999</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.2303179999999996</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>5.7696820000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -927,18 +881,13 @@
         <v>5.6197540000000004</v>
       </c>
       <c r="F20" s="1">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
         <v>-1.6197540000000004</v>
       </c>
-      <c r="H20" s="1">
-        <v>4.7986649999999997</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.79866499999999974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -955,18 +904,13 @@
         <v>6.1945839999999999</v>
       </c>
       <c r="F21" s="1">
-        <f>D21-E21</f>
+        <f t="shared" si="0"/>
         <v>1.8054160000000001</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.4530390000000004</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5469609999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -983,18 +927,13 @@
         <v>8.3782490000000003</v>
       </c>
       <c r="F22" s="1">
-        <f>D22-E22</f>
+        <f t="shared" si="0"/>
         <v>-8.3782490000000003</v>
       </c>
-      <c r="H22" s="1">
-        <v>7.8839620000000004</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>-7.8839620000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -1011,18 +950,13 @@
         <v>5.4312509999999996</v>
       </c>
       <c r="F23" s="1">
-        <f>D23-E23</f>
+        <f t="shared" si="0"/>
         <v>4.5687490000000004</v>
       </c>
-      <c r="H23" s="1">
-        <v>4.4559230000000003</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5440769999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1039,18 +973,13 @@
         <v>2.558754</v>
       </c>
       <c r="F24" s="1">
-        <f>D24-E24</f>
+        <f t="shared" si="0"/>
         <v>6.4412459999999996</v>
       </c>
-      <c r="H24" s="1">
-        <v>2.6912669999999999</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3087330000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1067,18 +996,13 @@
         <v>3.4315009999999999</v>
       </c>
       <c r="F25" s="1">
-        <f>D25-E25</f>
+        <f t="shared" si="0"/>
         <v>4.5684990000000001</v>
       </c>
-      <c r="H25" s="1">
-        <v>3.5349170000000001</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4650829999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -1095,18 +1019,13 @@
         <v>4.0563549999999999</v>
       </c>
       <c r="F26" s="1">
-        <f>D26-E26</f>
+        <f t="shared" si="0"/>
         <v>0.94364500000000007</v>
       </c>
-      <c r="H26" s="1">
-        <v>3.691989</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.308011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -1116,25 +1035,20 @@
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>4</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <v>3.5695190000000001</v>
       </c>
       <c r="F27" s="1">
-        <f>D27-E27</f>
+        <f t="shared" si="0"/>
         <v>0.43048099999999989</v>
       </c>
-      <c r="H27" s="1">
-        <v>3.3872930000000001</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.61270699999999989</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -1151,18 +1065,13 @@
         <v>4.0393420000000004</v>
       </c>
       <c r="F28" s="1">
-        <f>D28-E28</f>
+        <f t="shared" si="0"/>
         <v>7.9606579999999996</v>
       </c>
-      <c r="H28" s="1">
-        <v>3.8492039999999998</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1507959999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -1179,18 +1088,13 @@
         <v>5.5137999999999998</v>
       </c>
       <c r="F29" s="1">
-        <f>D29-E29</f>
+        <f t="shared" si="0"/>
         <v>-5.5137999999999998</v>
       </c>
-      <c r="H29" s="1">
-        <v>5.56515</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.56515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -1207,18 +1111,13 @@
         <v>5.3875380000000002</v>
       </c>
       <c r="F30" s="1">
-        <f>D30-E30</f>
+        <f t="shared" si="0"/>
         <v>2.6124619999999998</v>
       </c>
-      <c r="H30" s="1">
-        <v>4.4559230000000003</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5440769999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -1235,18 +1134,13 @@
         <v>2.5910310000000001</v>
       </c>
       <c r="F31" s="1">
-        <f>D31-E31</f>
+        <f t="shared" si="0"/>
         <v>7.4089689999999999</v>
       </c>
-      <c r="H31" s="1">
-        <v>2.6912669999999999</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>7.3087330000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -1263,18 +1157,13 @@
         <v>3.4617969999999998</v>
       </c>
       <c r="F32" s="1">
-        <f>D32-E32</f>
+        <f t="shared" si="0"/>
         <v>5.5382030000000002</v>
       </c>
-      <c r="H32" s="1">
-        <v>3.5349170000000001</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4650829999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -1291,18 +1180,13 @@
         <v>4.0775199999999998</v>
       </c>
       <c r="F33" s="1">
-        <f>D33-E33</f>
+        <f t="shared" si="0"/>
         <v>-2.0775199999999998</v>
       </c>
-      <c r="H33" s="1">
-        <v>3.691989</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.691989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -1319,18 +1203,13 @@
         <v>3.5553780000000001</v>
       </c>
       <c r="F34" s="1">
-        <f>D34-E34</f>
+        <f t="shared" ref="F34:F65" si="1">D34-E34</f>
         <v>3.4446219999999999</v>
       </c>
-      <c r="H34" s="1">
-        <v>3.3872930000000001</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6127069999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -1347,18 +1226,13 @@
         <v>4.0071199999999996</v>
       </c>
       <c r="F35" s="1">
-        <f>D35-E35</f>
+        <f t="shared" si="1"/>
         <v>7.9928800000000004</v>
       </c>
-      <c r="H35" s="1">
-        <v>3.8492039999999998</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1507959999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -1375,18 +1249,13 @@
         <v>5.4868569999999997</v>
       </c>
       <c r="F36" s="1">
-        <f>D36-E36</f>
+        <f t="shared" si="1"/>
         <v>-5.4868569999999997</v>
       </c>
-      <c r="H36" s="1">
-        <v>5.56515</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.56515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -1403,18 +1272,13 @@
         <v>2.4498790000000001</v>
       </c>
       <c r="F37" s="1">
-        <f>D37-E37</f>
+        <f t="shared" si="1"/>
         <v>1.5501209999999999</v>
       </c>
-      <c r="H37" s="1">
-        <v>1.9104080000000001</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0895919999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1431,18 +1295,13 @@
         <v>2.5389309999999998</v>
       </c>
       <c r="F38" s="1">
-        <f>D38-E38</f>
+        <f t="shared" si="1"/>
         <v>-2.5389309999999998</v>
       </c>
-      <c r="H38" s="1">
-        <v>2.6912669999999999</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.6912669999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1459,18 +1318,13 @@
         <v>3.5139990000000001</v>
       </c>
       <c r="F39" s="1">
-        <f>D39-E39</f>
+        <f t="shared" si="1"/>
         <v>2.4860009999999999</v>
       </c>
-      <c r="H39" s="1">
-        <v>3.5349170000000001</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4650829999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1487,18 +1341,13 @@
         <v>4.0411960000000002</v>
       </c>
       <c r="F40" s="1">
-        <f>D40-E40</f>
+        <f t="shared" si="1"/>
         <v>-4.1196000000000232E-2</v>
       </c>
-      <c r="H40" s="1">
-        <v>3.691989</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30801100000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1515,18 +1364,13 @@
         <v>3.5385719999999998</v>
       </c>
       <c r="F41" s="1">
-        <f>D41-E41</f>
+        <f t="shared" si="1"/>
         <v>6.4614279999999997</v>
       </c>
-      <c r="H41" s="1">
-        <v>3.3872930000000001</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6127070000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1543,18 +1387,13 @@
         <v>3.9816989999999999</v>
       </c>
       <c r="F42" s="1">
-        <f>D42-E42</f>
+        <f t="shared" si="1"/>
         <v>2.0183010000000001</v>
       </c>
-      <c r="H42" s="1">
-        <v>3.8492039999999998</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1507960000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1571,18 +1410,13 @@
         <v>5.5408989999999996</v>
       </c>
       <c r="F43" s="1">
-        <f>D43-E43</f>
+        <f t="shared" si="1"/>
         <v>-5.5408989999999996</v>
       </c>
-      <c r="H43" s="1">
-        <v>5.56515</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.56515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1599,18 +1433,13 @@
         <v>2.422504</v>
       </c>
       <c r="F44" s="1">
-        <f>D44-E44</f>
+        <f t="shared" si="1"/>
         <v>0.57749600000000001</v>
       </c>
-      <c r="H44" s="1">
-        <v>1.9104080000000001</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0895919999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1627,18 +1456,13 @@
         <v>2.4913829999999999</v>
       </c>
       <c r="F45" s="1">
-        <f>D45-E45</f>
+        <f t="shared" si="1"/>
         <v>3.5086170000000001</v>
       </c>
-      <c r="H45" s="1">
-        <v>2.6912669999999999</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3087330000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1655,18 +1479,13 @@
         <v>3.4959669999999998</v>
       </c>
       <c r="F46" s="1">
-        <f>D46-E46</f>
+        <f t="shared" si="1"/>
         <v>0.50403300000000018</v>
       </c>
-      <c r="H46" s="1">
-        <v>3.5349170000000001</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46508299999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1683,18 +1502,13 @@
         <v>4.0022250000000001</v>
       </c>
       <c r="F47" s="1">
-        <f>D47-E47</f>
+        <f t="shared" si="1"/>
         <v>5.9977749999999999</v>
       </c>
-      <c r="H47" s="1">
-        <v>3.691989</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3080110000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1711,18 +1525,13 @@
         <v>3.4515820000000001</v>
       </c>
       <c r="F48" s="1">
-        <f>D48-E48</f>
+        <f t="shared" si="1"/>
         <v>11.548418</v>
       </c>
-      <c r="H48" s="1">
-        <v>3.3872930000000001</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" si="0"/>
-        <v>11.612707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1739,18 +1548,13 @@
         <v>3.9497390000000001</v>
       </c>
       <c r="F49" s="1">
-        <f>D49-E49</f>
+        <f t="shared" si="1"/>
         <v>2.0502609999999999</v>
       </c>
-      <c r="H49" s="1">
-        <v>3.8492039999999998</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1507960000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1767,18 +1571,13 @@
         <v>5.4432349999999996</v>
       </c>
       <c r="F50" s="1">
-        <f>D50-E50</f>
+        <f t="shared" si="1"/>
         <v>-1.4432349999999996</v>
       </c>
-      <c r="H50" s="1">
-        <v>5.56515</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.56515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -1795,18 +1594,13 @@
         <v>3.0353330000000001</v>
       </c>
       <c r="F51" s="1">
-        <f>D51-E51</f>
+        <f t="shared" si="1"/>
         <v>-3.0353330000000001</v>
       </c>
-      <c r="H51" s="1">
-        <v>2.38801</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.38801</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -1816,25 +1610,26 @@
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>3</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="5">
         <v>2.989001</v>
       </c>
       <c r="F52" s="1">
-        <f>D52-E52</f>
+        <f t="shared" si="1"/>
         <v>1.0998999999999981E-2</v>
       </c>
-      <c r="H52" s="1">
-        <v>3.3640829999999999</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.36408299999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="7">
+        <f>F52*F52/D52</f>
+        <v>4.0326000333333194E-5</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -1851,18 +1646,19 @@
         <v>4.2635610000000002</v>
       </c>
       <c r="F53" s="1">
-        <f>D53-E53</f>
+        <f t="shared" si="1"/>
         <v>-1.2635610000000002</v>
       </c>
-      <c r="H53" s="1">
-        <v>4.4186459999999999</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.4186459999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="7">
+        <f t="shared" ref="G53:G61" si="2">F53*F53/D53</f>
+        <v>0.53219546690700015</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -1879,18 +1675,16 @@
         <v>4.9876709999999997</v>
       </c>
       <c r="F54" s="1">
-        <f>D54-E54</f>
+        <f t="shared" si="1"/>
         <v>-1.9876709999999997</v>
       </c>
-      <c r="H54" s="1">
-        <v>4.614986</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.614986</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3169453347469997</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -1907,18 +1701,23 @@
         <v>4.332014</v>
       </c>
       <c r="F55" s="1">
-        <f>D55-E55</f>
+        <f t="shared" si="1"/>
         <v>0.66798599999999997</v>
       </c>
-      <c r="H55" s="1">
-        <v>4.2341160000000002</v>
-      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="2"/>
+        <v>8.9241059239199991E-2</v>
+      </c>
+      <c r="H55" s="1"/>
       <c r="I55" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76588399999999979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <f>SUM(G52:G61)</f>
+        <v>16.912246383439619</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -1929,24 +1728,25 @@
         <v>24</v>
       </c>
       <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="E56" s="1">
-        <v>4.8624400000000003</v>
-      </c>
       <c r="F56" s="1">
-        <f>D56-E56</f>
-        <v>-4.8624400000000003</v>
-      </c>
-      <c r="H56" s="1">
-        <v>4.8115050000000004</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.8115050000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <f>E56-D56</f>
+        <v>-5</v>
+      </c>
+      <c r="G56" s="7">
+        <f>F56*F56/D56</f>
+        <v>5</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -1963,18 +1763,19 @@
         <v>6.883362</v>
       </c>
       <c r="F57" s="1">
-        <f>D57-E57</f>
+        <f t="shared" si="1"/>
         <v>9.116638</v>
       </c>
-      <c r="H57" s="1">
-        <v>6.9564370000000002</v>
-      </c>
-      <c r="I57" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0435629999999989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="7">
+        <f t="shared" si="2"/>
+        <v>5.1945680264402503</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -1991,18 +1792,17 @@
         <v>2.602131</v>
       </c>
       <c r="F58" s="1">
-        <f>D58-E58</f>
+        <f t="shared" si="1"/>
         <v>2.397869</v>
       </c>
-      <c r="H58" s="1">
-        <v>2.5472109999999999</v>
-      </c>
-      <c r="I58" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4527890000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1499551482321999</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -2012,25 +1812,24 @@
       <c r="C59">
         <v>27</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="4">
         <v>3</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="6">
         <v>3.2746209999999998</v>
       </c>
       <c r="F59" s="1">
-        <f>D59-E59</f>
+        <f t="shared" si="1"/>
         <v>-0.27462099999999978</v>
       </c>
-      <c r="H59" s="1">
-        <v>3.5883560000000001</v>
-      </c>
-      <c r="I59" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.5883560000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5138897880333296E-2</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -2047,18 +1846,19 @@
         <v>4.6798029999999997</v>
       </c>
       <c r="F60" s="1">
-        <f>D60-E60</f>
+        <f t="shared" si="1"/>
         <v>-2.6798029999999997</v>
       </c>
-      <c r="H60" s="1">
-        <v>4.7132230000000002</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.7132230000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5906720594044992</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -2068,25 +1868,30 @@
       <c r="C61">
         <v>29</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="6">
         <v>5.2597120000000004</v>
       </c>
       <c r="F61" s="1">
-        <f>D61-E61</f>
+        <f t="shared" si="1"/>
         <v>-0.25971200000000039</v>
       </c>
-      <c r="H61" s="1">
-        <v>4.9226520000000002</v>
-      </c>
-      <c r="I61" s="1">
-        <f t="shared" si="0"/>
-        <v>7.734799999999975E-2</v>
+      <c r="G61" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3490064588800041E-2</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J61" xr:uid="{F273C7DF-C682-4714-8495-3FE4D86E2592}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
